--- a/public/plugin/xls/Surat Kematian.xlsx
+++ b/public/plugin/xls/Surat Kematian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazhi\Downloads\Format Surat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB745D-F9B2-4975-8260-2BCD85F5F98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEBC065-1301-4854-A99E-FF2E5F1C06D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>UNTUK YANG BERSANGKUTAN</t>
   </si>
@@ -78,10 +78,19 @@
     <t>Surat Keterangan ini dibuat atas dasar yang sebenarnya.</t>
   </si>
   <si>
-    <t>Ciaruteun Ilir, 30 Desember 2023</t>
-  </si>
-  <si>
     <t>KEPALA DESA CIARUTEUN ILIR</t>
+  </si>
+  <si>
+    <t>SUPANDI</t>
+  </si>
+  <si>
+    <t>Ciaruteun Ilir</t>
+  </si>
+  <si>
+    <t>Ciaruteun Ilir,</t>
+  </si>
+  <si>
+    <t>Cibungbulang</t>
   </si>
 </sst>
 </file>
@@ -232,20 +241,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,7 +265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,26 +274,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,630 +617,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A390-243C-4F6A-8DC2-FF87348860CD}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="1.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="22" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="18">
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="A23:E24"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/plugin/xls/Surat Kematian.xlsx
+++ b/public/plugin/xls/Surat Kematian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazhi\Downloads\Format Surat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEBC065-1301-4854-A99E-FF2E5F1C06D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB745D-F9B2-4975-8260-2BCD85F5F98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>UNTUK YANG BERSANGKUTAN</t>
   </si>
@@ -78,19 +78,10 @@
     <t>Surat Keterangan ini dibuat atas dasar yang sebenarnya.</t>
   </si>
   <si>
+    <t>Ciaruteun Ilir, 30 Desember 2023</t>
+  </si>
+  <si>
     <t>KEPALA DESA CIARUTEUN ILIR</t>
-  </si>
-  <si>
-    <t>SUPANDI</t>
-  </si>
-  <si>
-    <t>Ciaruteun Ilir</t>
-  </si>
-  <si>
-    <t>Ciaruteun Ilir,</t>
-  </si>
-  <si>
-    <t>Cibungbulang</t>
   </si>
 </sst>
 </file>
@@ -241,18 +232,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,7 +258,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -274,35 +267,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,432 +601,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A390-243C-4F6A-8DC2-FF87348860CD}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="1.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="20" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="15" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="8">
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="A23:E24"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/plugin/xls/Surat Kematian.xlsx
+++ b/public/plugin/xls/Surat Kematian.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mazia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB745D-F9B2-4975-8260-2BCD85F5F98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED3806-8733-4C21-8021-97C99B7F5504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{BDE49C4D-C9D1-4C95-8060-91F53A3FE426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$38</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>UNTUK YANG BERSANGKUTAN</t>
   </si>
@@ -78,17 +81,20 @@
     <t>Surat Keterangan ini dibuat atas dasar yang sebenarnya.</t>
   </si>
   <si>
-    <t>Ciaruteun Ilir, 30 Desember 2023</t>
-  </si>
-  <si>
-    <t>KEPALA DESA CIARUTEUN ILIR</t>
+    <t>Cibungbulang</t>
+  </si>
+  <si>
+    <t>Ciaruteun Ilir</t>
+  </si>
+  <si>
+    <t>Ciaruteun Ilir,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +130,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,61 +231,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,632 +643,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8843A390-243C-4F6A-8DC2-FF87348860CD}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="1.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="C14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="1"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="1"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A6:E7"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="C27:E27"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="14" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="14" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>